--- a/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/3/Answers.xlsx
+++ b/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/3/Answers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Outsystems\Associate Reactive Developer\Practice tests\AssociateReactiveWebDeveloperQuestions\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C637FCC-0712-4F92-8F6E-4D9D2C6FF0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504CEFB1-6915-45D5-B9F0-056FD216667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25725" yWindow="0" windowWidth="3180" windowHeight="15585" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
+    <workbookView xWindow="21285" yWindow="0" windowWidth="7620" windowHeight="15585" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -58,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,22 +402,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1B664-25C6-4901-9CE4-0F2D364D7035}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="b">
+        <f>A1=B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <f t="shared" ref="C2:C50" si="0">A2=B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B05C5D-662F-4EA9-8F23-61F27D8B7A38}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -423,18 +899,18 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -448,7 +924,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -568,7 +1044,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -639,7 +1115,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
